--- a/заказы/филиалы и опт/2025/01,25/27,01,25 Ост СЫР филиалы/дв 27,01,25 млрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2025/01,25/27,01,25 Ост СЫР филиалы/дв 27,01,25 млрсч ост сыр от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\27,01,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2025\01,25\27,01,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0BA91F-E05D-48DF-BF02-CE50178EB77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E51A00-5A76-4FE2-A896-DE3FCBCD2027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <t>заказ</t>
   </si>
   <si>
-    <t>03,01,</t>
+    <t>03,02,</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1438,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
